--- a/Student Average Calculator.xlsx
+++ b/Student Average Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacey\Google Drive\Teaching\Vanderbilt\LLO 8200 - Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF47E81-9033-4825-8B78-9F56D74F6B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32E572D-D2B2-497E-A3FC-0EA1C74AB204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1305" windowWidth="29040" windowHeight="15840" xr2:uid="{89180343-A4B2-41DD-8992-55BC59799BD5}"/>
+    <workbookView xWindow="28680" yWindow="-1545" windowWidth="29040" windowHeight="15840" xr2:uid="{89180343-A4B2-41DD-8992-55BC59799BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Problem Sets</t>
   </si>
@@ -63,9 +63,6 @@
     <t>PS 5</t>
   </si>
   <si>
-    <t>PS 6</t>
-  </si>
-  <si>
     <t>PR 1</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Grade (DO NOT MODIFY)</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,14 +214,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -235,11 +235,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,14 +578,15 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="6.140625" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -573,166 +595,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="14" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="16">
-        <v>100</v>
-      </c>
-      <c r="P3" s="16" t="e">
-        <f>AVERAGE(C3:H3)</f>
+      <c r="C3" s="20"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="13">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="13" t="e">
+        <f>AVERAGE(D3:H3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="13">
         <f>AVERAGE(SUM(I3:K3),L3,M3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="16" t="e">
+      <c r="R3" s="13" t="e">
         <f>(O3*0.1)+(P3*0.45)+(Q3*0.45)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N4" s="3"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="21">
         <v>100</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>100</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>100</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>100</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>100</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>100</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>30</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>30</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>40</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>100</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <v>100</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>